--- a/docs/Sucupira/2012/conferencia_programa.xlsx
+++ b/docs/Sucupira/2012/conferencia_programa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{798CA8A5-14D1-A145-A54E-424708E9D4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{419C39B4-2FD1-1D4C-A5E3-7D72145FA014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Docentes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12443" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12443" uniqueCount="1125">
   <si>
     <t>Identificador do PPG</t>
   </si>
@@ -3293,7 +3293,13 @@
     <t>Quantidade de Meses</t>
   </si>
   <si>
-    <t>24</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>Ano da Produção</t>
@@ -4728,13 +4734,13 @@
         <v>63</v>
       </c>
       <c r="W6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s">
         <v>76</v>
@@ -5602,7 +5608,7 @@
         <v>170</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="s">
         <v>72</v>
@@ -19639,7 +19645,7 @@
         <v>4</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="s">
         <v>86</v>
@@ -20084,7 +20090,7 @@
         <v>3</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="s">
         <v>86</v>
@@ -20679,7 +20685,7 @@
         <v>63</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2" t="s">
         <v>86</v>
@@ -20792,7 +20798,7 @@
         <v>63</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" t="s">
         <v>86</v>
@@ -20905,7 +20911,7 @@
         <v>63</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4" t="s">
         <v>86</v>
@@ -21018,7 +21024,7 @@
         <v>63</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" t="s">
         <v>86</v>
@@ -22826,7 +22832,7 @@
         <v>63</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21" t="s">
         <v>86</v>
@@ -22939,7 +22945,7 @@
         <v>710</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22" t="s">
         <v>86</v>
@@ -23052,7 +23058,7 @@
         <v>63</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23" t="s">
         <v>86</v>
@@ -24941,16 +24947,16 @@
         <v>306</v>
       </c>
       <c r="AA2" t="s">
-        <v>71</v>
+        <v>1030</v>
       </c>
       <c r="AB2" t="s">
-        <v>71</v>
+        <v>1035</v>
       </c>
       <c r="AC2" t="s">
-        <v>71</v>
+        <v>1033</v>
       </c>
       <c r="AD2" t="s">
-        <v>71</v>
+        <v>1084</v>
       </c>
       <c r="AE2" t="s">
         <v>86</v>
@@ -25045,7 +25051,7 @@
         <v>1033</v>
       </c>
       <c r="AD3" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="AE3" t="s">
         <v>86</v>
@@ -25416,16 +25422,16 @@
         <v>519</v>
       </c>
       <c r="AA7" t="s">
-        <v>71</v>
+        <v>1030</v>
       </c>
       <c r="AB7" t="s">
-        <v>71</v>
+        <v>1035</v>
       </c>
       <c r="AC7" t="s">
-        <v>71</v>
+        <v>1033</v>
       </c>
       <c r="AD7" t="s">
-        <v>71</v>
+        <v>1086</v>
       </c>
       <c r="AE7" t="s">
         <v>86</v>
@@ -25844,37 +25850,37 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="H1" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="I1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="J1" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="K1" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="L1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="M1" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="N1" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="O1" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="P1" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="Q1" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="R1" t="s">
         <v>834</v>
@@ -25883,16 +25889,16 @@
         <v>870</v>
       </c>
       <c r="T1" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="U1" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="V1" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="W1" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
@@ -25928,28 +25934,28 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="H1" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="I1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="J1" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="K1" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="L1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="M1" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="N1" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="O1" t="s">
         <v>834</v>
@@ -25958,22 +25964,22 @@
         <v>870</v>
       </c>
       <c r="Q1" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="R1" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="S1" t="s">
         <v>1045</v>
       </c>
       <c r="T1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="V1" t="s">
         <v>1101</v>
-      </c>
-      <c r="U1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1099</v>
       </c>
     </row>
   </sheetData>
@@ -26009,34 +26015,34 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="H1" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="I1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="J1" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="K1" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="L1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="M1" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="N1" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="O1" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="P1" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="Q1" t="s">
         <v>834</v>
@@ -26045,16 +26051,16 @@
         <v>870</v>
       </c>
       <c r="S1" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="T1" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="U1" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="V1" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
@@ -26090,31 +26096,31 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="H1" t="s">
         <v>870</v>
       </c>
       <c r="I1" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="J1" t="s">
         <v>834</v>
       </c>
       <c r="K1" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="L1" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="M1" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="N1" t="s">
         <v>864</v>
       </c>
       <c r="O1" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="P1" t="s">
         <v>866</v>
@@ -26126,7 +26132,7 @@
         <v>868</v>
       </c>
       <c r="S1" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -29702,40 +29708,40 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="H1" t="s">
         <v>870</v>
       </c>
       <c r="I1" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="J1" t="s">
         <v>834</v>
       </c>
       <c r="K1" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="L1" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="M1" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="N1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="O1" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="P1" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="Q1" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="R1" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
   </sheetData>
@@ -34824,43 +34830,43 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="H1" t="s">
         <v>870</v>
       </c>
       <c r="I1" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="J1" t="s">
         <v>834</v>
       </c>
       <c r="K1" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="L1" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="M1" t="s">
         <v>1041</v>
       </c>
       <c r="N1" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="O1" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="P1" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="Q1" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="R1" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="S1" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -44144,10 +44150,10 @@
         <v>77</v>
       </c>
       <c r="S23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s">
-        <v>71</v>
+        <v>724</v>
       </c>
       <c r="U23" t="s">
         <v>671</v>
